--- a/输出/file_2_bell_fidelity.xlsx
+++ b/输出/file_2_bell_fidelity.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -37,13 +37,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -64,16 +68,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.0094964899999999998</v>
+        <v>0.94310888999999998</v>
       </c>
       <c r="B1" s="0">
-        <v>0.93645842999999995</v>
+        <v>0.012936949999999999</v>
       </c>
       <c r="C1" s="0">
-        <v>0.0050268200000000004</v>
+        <v>0.033061640000000003</v>
       </c>
       <c r="D1" s="0">
-        <v>0.049018260000000001</v>
+        <v>0.010892519999999999</v>
       </c>
     </row>
   </sheetData>
